--- a/api/report.xlsx
+++ b/api/report.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Sale report</t>
   </si>
   <si>
-    <t>2021-09-09</t>
+    <t>2021-09-13</t>
   </si>
   <si>
     <t>Customer Name</t>
@@ -450,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E14"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="5" width="30" customWidth="1"/>
@@ -501,20 +501,173 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5">
-        <v>15</v>
+      <c r="E14" s="5">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
